--- a/nmadb/479996.xlsx
+++ b/nmadb/479996.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7155"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -176,7 +176,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="8">
     <font>
       <sz val="10"/>
@@ -794,14 +794,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="4" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" style="4" bestFit="1" customWidth="1"/>
@@ -881,6 +881,9 @@
     </row>
     <row r="3" spans="1:21">
       <c r="B3" s="24"/>
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
       <c r="D3" s="4">
         <v>1</v>
       </c>
@@ -926,6 +929,9 @@
       </c>
     </row>
     <row r="5" spans="1:21">
+      <c r="C5" s="4">
+        <v>2</v>
+      </c>
       <c r="D5" s="4">
         <v>1</v>
       </c>
@@ -974,6 +980,9 @@
     </row>
     <row r="7" spans="1:21">
       <c r="B7" s="24"/>
+      <c r="C7" s="4">
+        <v>3</v>
+      </c>
       <c r="D7" s="4">
         <v>1</v>
       </c>
@@ -1022,6 +1031,9 @@
     </row>
     <row r="9" spans="1:21">
       <c r="B9" s="25"/>
+      <c r="C9" s="4">
+        <v>4</v>
+      </c>
       <c r="D9" s="4">
         <v>1</v>
       </c>
@@ -1065,6 +1077,9 @@
     </row>
     <row r="11" spans="1:21">
       <c r="B11" s="24"/>
+      <c r="C11" s="4">
+        <v>5</v>
+      </c>
       <c r="D11" s="4">
         <v>1</v>
       </c>
@@ -1099,6 +1114,9 @@
       <c r="L12" s="29"/>
     </row>
     <row r="13" spans="1:21">
+      <c r="C13" s="4">
+        <v>6</v>
+      </c>
       <c r="D13" s="4">
         <v>1</v>
       </c>
@@ -1139,6 +1157,9 @@
     </row>
     <row r="15" spans="1:21">
       <c r="B15" s="24"/>
+      <c r="C15" s="4">
+        <v>7</v>
+      </c>
       <c r="D15" s="4">
         <v>1</v>
       </c>
@@ -1171,6 +1192,9 @@
       </c>
     </row>
     <row r="17" spans="1:7">
+      <c r="C17" s="4">
+        <v>8</v>
+      </c>
       <c r="D17" s="4">
         <v>1</v>
       </c>
@@ -1203,6 +1227,9 @@
     </row>
     <row r="19" spans="1:7">
       <c r="B19" s="24"/>
+      <c r="C19" s="4">
+        <v>9</v>
+      </c>
       <c r="D19" s="4">
         <v>1</v>
       </c>
@@ -1232,6 +1259,9 @@
     </row>
     <row r="21" spans="1:7">
       <c r="B21" s="25"/>
+      <c r="C21" s="4">
+        <v>10</v>
+      </c>
       <c r="D21" s="4">
         <v>1</v>
       </c>
@@ -1261,6 +1291,9 @@
     </row>
     <row r="23" spans="1:7">
       <c r="B23" s="24"/>
+      <c r="C23" s="4">
+        <v>11</v>
+      </c>
       <c r="D23" s="4">
         <v>1</v>
       </c>
@@ -1292,6 +1325,9 @@
       </c>
     </row>
     <row r="25" spans="1:7">
+      <c r="C25" s="4">
+        <v>12</v>
+      </c>
       <c r="D25" s="4">
         <v>1</v>
       </c>
@@ -1324,6 +1360,9 @@
     </row>
     <row r="27" spans="1:7">
       <c r="B27" s="24"/>
+      <c r="C27" s="4">
+        <v>13</v>
+      </c>
       <c r="D27" s="4">
         <v>1</v>
       </c>
@@ -1352,6 +1391,9 @@
       </c>
     </row>
     <row r="29" spans="1:7">
+      <c r="C29" s="4">
+        <v>14</v>
+      </c>
       <c r="D29" s="4">
         <v>1</v>
       </c>
@@ -1385,6 +1427,9 @@
     </row>
     <row r="31" spans="1:7">
       <c r="B31" s="24"/>
+      <c r="C31" s="4">
+        <v>15</v>
+      </c>
       <c r="D31" s="4">
         <v>6</v>
       </c>
@@ -1397,6 +1442,9 @@
     </row>
     <row r="32" spans="1:7">
       <c r="B32" s="24"/>
+      <c r="C32" s="4">
+        <v>15</v>
+      </c>
       <c r="D32" s="4">
         <v>7</v>
       </c>
@@ -1428,6 +1476,9 @@
       </c>
     </row>
     <row r="34" spans="1:11">
+      <c r="C34" s="4">
+        <v>16</v>
+      </c>
       <c r="D34" s="4">
         <v>1</v>
       </c>
@@ -1460,6 +1511,9 @@
     </row>
     <row r="36" spans="1:11">
       <c r="B36" s="24"/>
+      <c r="C36" s="4">
+        <v>17</v>
+      </c>
       <c r="D36" s="4">
         <v>1</v>
       </c>
@@ -1491,6 +1545,9 @@
       </c>
     </row>
     <row r="38" spans="1:11">
+      <c r="C38" s="4">
+        <v>18</v>
+      </c>
       <c r="D38" s="4">
         <v>1</v>
       </c>
@@ -1523,6 +1580,9 @@
       <c r="K39" s="14"/>
     </row>
     <row r="40" spans="1:11">
+      <c r="C40" s="4">
+        <v>19</v>
+      </c>
       <c r="D40" s="4">
         <v>6</v>
       </c>
@@ -1536,7 +1596,9 @@
     <row r="41" spans="1:11" s="14" customFormat="1">
       <c r="A41" s="13"/>
       <c r="B41" s="26"/>
-      <c r="C41" s="13"/>
+      <c r="C41" s="4">
+        <v>19</v>
+      </c>
       <c r="D41" s="13">
         <v>8</v>
       </c>
@@ -1571,6 +1633,9 @@
       </c>
     </row>
     <row r="43" spans="1:11">
+      <c r="C43" s="4">
+        <v>20</v>
+      </c>
       <c r="D43" s="4">
         <v>6</v>
       </c>
@@ -1602,6 +1667,9 @@
       </c>
     </row>
     <row r="45" spans="1:11">
+      <c r="C45" s="4">
+        <v>21</v>
+      </c>
       <c r="D45" s="4">
         <v>4</v>
       </c>
